--- a/natmiOut/OldD4/LR-pairs_lrc2p/Slit2-Robo2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Slit2-Robo2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +522,743 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0944735818621398</v>
+        <v>0.100106</v>
       </c>
       <c r="H2">
-        <v>0.0944735818621398</v>
+        <v>0.300318</v>
       </c>
       <c r="I2">
-        <v>0.01467234974625252</v>
+        <v>0.01338951718926161</v>
       </c>
       <c r="J2">
-        <v>0.01467234974625252</v>
+        <v>0.01405521613829616</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.949586377120877</v>
+        <v>1.252524333333333</v>
       </c>
       <c r="N2">
-        <v>0.949586377120877</v>
+        <v>3.757573</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9099863583404593</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9099863583404593</v>
       </c>
       <c r="Q2">
-        <v>0.08971082633410193</v>
+        <v>0.1253852009126666</v>
       </c>
       <c r="R2">
-        <v>0.08971082633410193</v>
+        <v>1.128466808214</v>
       </c>
       <c r="S2">
-        <v>0.01467234974625252</v>
+        <v>0.01218427798699315</v>
       </c>
       <c r="T2">
-        <v>0.01467234974625252</v>
+        <v>0.01279005494937618</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.3126462330436</v>
+        <v>0.100106</v>
       </c>
       <c r="H3">
-        <v>5.3126462330436</v>
+        <v>0.300318</v>
       </c>
       <c r="I3">
-        <v>0.8250878401442793</v>
+        <v>0.01338951718926161</v>
       </c>
       <c r="J3">
-        <v>0.8250878401442793</v>
+        <v>0.01405521613829616</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.949586377120877</v>
+        <v>0.108201</v>
       </c>
       <c r="N3">
-        <v>0.949586377120877</v>
+        <v>0.324603</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.0786103960924746</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.07861039609247461</v>
       </c>
       <c r="Q3">
-        <v>5.044816489360747</v>
+        <v>0.010831569306</v>
       </c>
       <c r="R3">
-        <v>5.044816489360747</v>
+        <v>0.09748412375399998</v>
       </c>
       <c r="S3">
-        <v>0.8250878401442793</v>
+        <v>0.001052555249734852</v>
       </c>
       <c r="T3">
-        <v>0.8250878401442793</v>
+        <v>0.001104886107796803</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.100106</v>
+      </c>
+      <c r="H4">
+        <v>0.300318</v>
+      </c>
+      <c r="I4">
+        <v>0.01338951718926161</v>
+      </c>
+      <c r="J4">
+        <v>0.01405521613829616</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.01569566666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.047087</v>
+      </c>
+      <c r="O4">
+        <v>0.01140324556706608</v>
+      </c>
+      <c r="P4">
+        <v>0.01140324556706608</v>
+      </c>
+      <c r="Q4">
+        <v>0.001571230407333333</v>
+      </c>
+      <c r="R4">
+        <v>0.014141073666</v>
+      </c>
+      <c r="S4">
+        <v>0.0001526839525336026</v>
+      </c>
+      <c r="T4">
+        <v>0.0001602750811231814</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>6.300519666666666</v>
+      </c>
+      <c r="H5">
+        <v>18.901559</v>
+      </c>
+      <c r="I5">
+        <v>0.8427158849431019</v>
+      </c>
+      <c r="J5">
+        <v>0.8846139661817043</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.252524333333333</v>
+      </c>
+      <c r="N5">
+        <v>3.757573</v>
+      </c>
+      <c r="O5">
+        <v>0.9099863583404593</v>
+      </c>
+      <c r="P5">
+        <v>0.9099863583404593</v>
+      </c>
+      <c r="Q5">
+        <v>7.891554195145222</v>
+      </c>
+      <c r="R5">
+        <v>71.02398775630699</v>
+      </c>
+      <c r="S5">
+        <v>0.7668599592550308</v>
+      </c>
+      <c r="T5">
+        <v>0.8049866416227993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>6.300519666666666</v>
+      </c>
+      <c r="H6">
+        <v>18.901559</v>
+      </c>
+      <c r="I6">
+        <v>0.8427158849431019</v>
+      </c>
+      <c r="J6">
+        <v>0.8846139661817043</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.108201</v>
+      </c>
+      <c r="N6">
+        <v>0.324603</v>
+      </c>
+      <c r="O6">
+        <v>0.0786103960924746</v>
+      </c>
+      <c r="P6">
+        <v>0.07861039609247461</v>
+      </c>
+      <c r="Q6">
+        <v>0.6817225284529999</v>
+      </c>
+      <c r="R6">
+        <v>6.135502756076999</v>
+      </c>
+      <c r="S6">
+        <v>0.06624622950879749</v>
+      </c>
+      <c r="T6">
+        <v>0.06953985427047872</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>6.300519666666666</v>
+      </c>
+      <c r="H7">
+        <v>18.901559</v>
+      </c>
+      <c r="I7">
+        <v>0.8427158849431019</v>
+      </c>
+      <c r="J7">
+        <v>0.8846139661817043</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.01569566666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.047087</v>
+      </c>
+      <c r="O7">
+        <v>0.01140324556706608</v>
+      </c>
+      <c r="P7">
+        <v>0.01140324556706608</v>
+      </c>
+      <c r="Q7">
+        <v>0.09889085651477778</v>
+      </c>
+      <c r="R7">
+        <v>0.8900177086329999</v>
+      </c>
+      <c r="S7">
+        <v>0.009609696179273597</v>
+      </c>
+      <c r="T7">
+        <v>0.01008747028842627</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.01349666666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.04049</v>
+      </c>
+      <c r="I8">
+        <v>0.001805224964847936</v>
+      </c>
+      <c r="J8">
+        <v>0.001894976995849771</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.252524333333333</v>
+      </c>
+      <c r="N8">
+        <v>3.757573</v>
+      </c>
+      <c r="O8">
+        <v>0.9099863583404593</v>
+      </c>
+      <c r="P8">
+        <v>0.9099863583404593</v>
+      </c>
+      <c r="Q8">
+        <v>0.01690490341888889</v>
+      </c>
+      <c r="R8">
+        <v>0.15214413077</v>
+      </c>
+      <c r="S8">
+        <v>0.001642730091747257</v>
+      </c>
+      <c r="T8">
+        <v>0.001724403215592277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.01349666666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.04049</v>
+      </c>
+      <c r="I9">
+        <v>0.001805224964847936</v>
+      </c>
+      <c r="J9">
+        <v>0.001894976995849771</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.108201</v>
+      </c>
+      <c r="N9">
+        <v>0.324603</v>
+      </c>
+      <c r="O9">
+        <v>0.0786103960924746</v>
+      </c>
+      <c r="P9">
+        <v>0.07861039609247461</v>
+      </c>
+      <c r="Q9">
+        <v>0.00146035283</v>
+      </c>
+      <c r="R9">
+        <v>0.01314317547</v>
+      </c>
+      <c r="S9">
+        <v>0.0001419094495227198</v>
+      </c>
+      <c r="T9">
+        <v>0.0001489648922298781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.01349666666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.04049</v>
+      </c>
+      <c r="I10">
+        <v>0.001805224964847936</v>
+      </c>
+      <c r="J10">
+        <v>0.001894976995849771</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.01569566666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.047087</v>
+      </c>
+      <c r="O10">
+        <v>0.01140324556706608</v>
+      </c>
+      <c r="P10">
+        <v>0.01140324556706608</v>
+      </c>
+      <c r="Q10">
+        <v>0.0002118391811111111</v>
+      </c>
+      <c r="R10">
+        <v>0.00190655263</v>
+      </c>
+      <c r="S10">
+        <v>2.058542357795925E-05</v>
+      </c>
+      <c r="T10">
+        <v>2.160888802761611E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1.03176580982314</v>
-      </c>
-      <c r="H4">
-        <v>1.03176580982314</v>
-      </c>
-      <c r="I4">
-        <v>0.1602398101094681</v>
-      </c>
-      <c r="J4">
-        <v>0.1602398101094681</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.949586377120877</v>
-      </c>
-      <c r="N4">
-        <v>0.949586377120877</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.9797507573871432</v>
-      </c>
-      <c r="R4">
-        <v>0.9797507573871432</v>
-      </c>
-      <c r="S4">
-        <v>0.1602398101094681</v>
-      </c>
-      <c r="T4">
-        <v>0.1602398101094681</v>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.0623235</v>
+      </c>
+      <c r="H11">
+        <v>2.124647</v>
+      </c>
+      <c r="I11">
+        <v>0.1420893729027886</v>
+      </c>
+      <c r="J11">
+        <v>0.09943584068414989</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.252524333333333</v>
+      </c>
+      <c r="N11">
+        <v>3.757573</v>
+      </c>
+      <c r="O11">
+        <v>0.9099863583404593</v>
+      </c>
+      <c r="P11">
+        <v>0.9099863583404593</v>
+      </c>
+      <c r="Q11">
+        <v>1.330586033621833</v>
+      </c>
+      <c r="R11">
+        <v>7.983516201731</v>
+      </c>
+      <c r="S11">
+        <v>0.1292993910066881</v>
+      </c>
+      <c r="T11">
+        <v>0.09048525855269164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.0623235</v>
+      </c>
+      <c r="H12">
+        <v>2.124647</v>
+      </c>
+      <c r="I12">
+        <v>0.1420893729027886</v>
+      </c>
+      <c r="J12">
+        <v>0.09943584068414989</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.108201</v>
+      </c>
+      <c r="N12">
+        <v>0.324603</v>
+      </c>
+      <c r="O12">
+        <v>0.0786103960924746</v>
+      </c>
+      <c r="P12">
+        <v>0.07861039609247461</v>
+      </c>
+      <c r="Q12">
+        <v>0.1149444650235</v>
+      </c>
+      <c r="R12">
+        <v>0.689666790141</v>
+      </c>
+      <c r="S12">
+        <v>0.01116970188441954</v>
+      </c>
+      <c r="T12">
+        <v>0.007816690821969225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.0623235</v>
+      </c>
+      <c r="H13">
+        <v>2.124647</v>
+      </c>
+      <c r="I13">
+        <v>0.1420893729027886</v>
+      </c>
+      <c r="J13">
+        <v>0.09943584068414989</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.01569566666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.047087</v>
+      </c>
+      <c r="O13">
+        <v>0.01140324556706608</v>
+      </c>
+      <c r="P13">
+        <v>0.01140324556706608</v>
+      </c>
+      <c r="Q13">
+        <v>0.01667387554816667</v>
+      </c>
+      <c r="R13">
+        <v>0.100043253289</v>
+      </c>
+      <c r="S13">
+        <v>0.001620280011680924</v>
+      </c>
+      <c r="T13">
+        <v>0.001133891309489022</v>
       </c>
     </row>
   </sheetData>
